--- a/public/assets/excel/New Student List.xlsx
+++ b/public/assets/excel/New Student List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="136">
   <si>
     <t xml:space="preserve">First name</t>
   </si>
@@ -124,6 +124,9 @@
     <t xml:space="preserve">kidlatboy@email.com</t>
   </si>
   <si>
+    <t xml:space="preserve">BSIS102</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anna</t>
   </si>
   <si>
@@ -172,9 +175,6 @@
     <t xml:space="preserve">antolin.rosario@official.ph</t>
   </si>
   <si>
-    <t xml:space="preserve">BSIS102</t>
-  </si>
-  <si>
     <t xml:space="preserve">Daylin</t>
   </si>
   <si>
@@ -196,6 +196,9 @@
     <t xml:space="preserve">fcortan@social.com</t>
   </si>
   <si>
+    <t xml:space="preserve">BSIS103</t>
+  </si>
+  <si>
     <t xml:space="preserve">Isidto </t>
   </si>
   <si>
@@ -262,6 +265,9 @@
     <t xml:space="preserve">delgado.josh22@social.com</t>
   </si>
   <si>
+    <t xml:space="preserve">BSIS104</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sofia</t>
   </si>
   <si>
@@ -280,9 +286,6 @@
     <t xml:space="preserve">chino.preson.binuya@account.org</t>
   </si>
   <si>
-    <t xml:space="preserve">BSIS103</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gelli </t>
   </si>
   <si>
@@ -325,6 +328,9 @@
     <t xml:space="preserve">valenzuela.co@account.org</t>
   </si>
   <si>
+    <t xml:space="preserve">BSIS105</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sherry-Ann </t>
   </si>
   <si>
@@ -377,6 +383,51 @@
   </si>
   <si>
     <t xml:space="preserve">ana.amat.espina@email.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSIS201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSIS202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSIS203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSIS204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSIS205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSIS301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSIS302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSIS303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSIS304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSIS305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSIS401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSIS402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSIS403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSIS404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSIS405</t>
   </si>
 </sst>
 </file>
@@ -458,7 +509,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -468,6 +519,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -598,10 +653,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A108" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F118" activeCellId="0" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -626,7 +681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -636,14 +691,14 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -656,14 +711,14 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -676,14 +731,14 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -696,14 +751,14 @@
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -716,14 +771,14 @@
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -736,14 +791,14 @@
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -756,467 +811,2246 @@
       <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="0" t="n">
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="0" t="n">
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="E42" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="C45" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="D45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="E72" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="E75" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="B76" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="C76" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="D76" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E87" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E88" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E100" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E101" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="E102" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E103" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E104" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E105" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="E106" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="B107" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="C107" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="D107" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="E107" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="B108" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="C108" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="D108" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="E108" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C109" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="D109" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="E109" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="B110" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="C110" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="D110" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="E110" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="B111" s="1"/>
+      <c r="C111" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="D111" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="E111" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="B112" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="C112" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="E112" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="B113" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="C113" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="D113" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="E113" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="B114" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="D114" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="E114" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="B115" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="C115" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="E115" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="B116" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="C116" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="D116" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="E116" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="B117" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="C117" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="D117" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="E117" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="B118" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C118" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="E118" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="B119" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C119" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="E119" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="B120" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="C120" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="D120" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="E120" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="B121" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>86</v>
+      <c r="C121" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E121" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1251,6 +3085,96 @@
     <hyperlink ref="D29" r:id="rId28" display="isylle4@email.com"/>
     <hyperlink ref="D30" r:id="rId29" display="aarguirnalda@email.com"/>
     <hyperlink ref="D31" r:id="rId30" display="ana.amat.espina@email.com"/>
+    <hyperlink ref="D32" r:id="rId31" display="mnavarro@email.com"/>
+    <hyperlink ref="D33" r:id="rId32" display="rrguingona@social.com"/>
+    <hyperlink ref="D34" r:id="rId33" display="maenciso@message.com"/>
+    <hyperlink ref="D35" r:id="rId34" display="isylle.barrientos@mit.edu"/>
+    <hyperlink ref="D36" r:id="rId35" display="mirandkyle@mail.me"/>
+    <hyperlink ref="D37" r:id="rId36" display="diwatangvelasco@account.org"/>
+    <hyperlink ref="D38" r:id="rId37" display="kidlatboy@email.com"/>
+    <hyperlink ref="D39" r:id="rId38" display="anna.ramos@email.com"/>
+    <hyperlink ref="D40" r:id="rId39" display="beronilla.adrian@mail.me"/>
+    <hyperlink ref="D41" r:id="rId40" display="jdr.dureza@account.org"/>
+    <hyperlink ref="D42" r:id="rId41" display="antolin.rosario@official.ph"/>
+    <hyperlink ref="D43" r:id="rId42" display="ddrodriguez@mit.edu"/>
+    <hyperlink ref="D44" r:id="rId43" display="fcortan@social.com"/>
+    <hyperlink ref="D45" r:id="rId44" display="iibinuya123@social.com"/>
+    <hyperlink ref="D46" r:id="rId45" display="awitca@message.com"/>
+    <hyperlink ref="D47" r:id="rId46" display="chua.asuncion@mail.me"/>
+    <hyperlink ref="D48" r:id="rId47" display="jonardmagsino@account.org"/>
+    <hyperlink ref="D49" r:id="rId48" display="scbarrientos@email.com"/>
+    <hyperlink ref="D50" r:id="rId49" display="delgado.josh22@social.com"/>
+    <hyperlink ref="D51" r:id="rId50" display="sofia.badong@email.com"/>
+    <hyperlink ref="D52" r:id="rId51" display="chino.preson.binuya@account.org"/>
+    <hyperlink ref="D53" r:id="rId52" display="jellylacumba@social.com"/>
+    <hyperlink ref="D54" r:id="rId53" display="marco.polo@official.ph"/>
+    <hyperlink ref="D55" r:id="rId54" display="aubrey.ramos@mail.me"/>
+    <hyperlink ref="D56" r:id="rId55" display="valenzuela.co@account.org"/>
+    <hyperlink ref="D57" r:id="rId56" display="sherryann.lazada@account.org"/>
+    <hyperlink ref="D58" r:id="rId57" display="josemarichan@social.com"/>
+    <hyperlink ref="D59" r:id="rId58" display="isylle4@email.com"/>
+    <hyperlink ref="D60" r:id="rId59" display="aarguirnalda@email.com"/>
+    <hyperlink ref="D61" r:id="rId60" display="ana.amat.espina@email.com"/>
+    <hyperlink ref="D62" r:id="rId61" display="mnavarro@email.com"/>
+    <hyperlink ref="D63" r:id="rId62" display="rrguingona@social.com"/>
+    <hyperlink ref="D64" r:id="rId63" display="maenciso@message.com"/>
+    <hyperlink ref="D65" r:id="rId64" display="isylle.barrientos@mit.edu"/>
+    <hyperlink ref="D66" r:id="rId65" display="mirandkyle@mail.me"/>
+    <hyperlink ref="D67" r:id="rId66" display="diwatangvelasco@account.org"/>
+    <hyperlink ref="D68" r:id="rId67" display="kidlatboy@email.com"/>
+    <hyperlink ref="D69" r:id="rId68" display="anna.ramos@email.com"/>
+    <hyperlink ref="D70" r:id="rId69" display="beronilla.adrian@mail.me"/>
+    <hyperlink ref="D71" r:id="rId70" display="jdr.dureza@account.org"/>
+    <hyperlink ref="D72" r:id="rId71" display="antolin.rosario@official.ph"/>
+    <hyperlink ref="D73" r:id="rId72" display="ddrodriguez@mit.edu"/>
+    <hyperlink ref="D74" r:id="rId73" display="fcortan@social.com"/>
+    <hyperlink ref="D75" r:id="rId74" display="iibinuya123@social.com"/>
+    <hyperlink ref="D76" r:id="rId75" display="awitca@message.com"/>
+    <hyperlink ref="D77" r:id="rId76" display="chua.asuncion@mail.me"/>
+    <hyperlink ref="D78" r:id="rId77" display="jonardmagsino@account.org"/>
+    <hyperlink ref="D79" r:id="rId78" display="scbarrientos@email.com"/>
+    <hyperlink ref="D80" r:id="rId79" display="delgado.josh22@social.com"/>
+    <hyperlink ref="D81" r:id="rId80" display="sofia.badong@email.com"/>
+    <hyperlink ref="D82" r:id="rId81" display="chino.preson.binuya@account.org"/>
+    <hyperlink ref="D83" r:id="rId82" display="jellylacumba@social.com"/>
+    <hyperlink ref="D84" r:id="rId83" display="marco.polo@official.ph"/>
+    <hyperlink ref="D85" r:id="rId84" display="aubrey.ramos@mail.me"/>
+    <hyperlink ref="D86" r:id="rId85" display="valenzuela.co@account.org"/>
+    <hyperlink ref="D87" r:id="rId86" display="sherryann.lazada@account.org"/>
+    <hyperlink ref="D88" r:id="rId87" display="josemarichan@social.com"/>
+    <hyperlink ref="D89" r:id="rId88" display="isylle4@email.com"/>
+    <hyperlink ref="D90" r:id="rId89" display="aarguirnalda@email.com"/>
+    <hyperlink ref="D91" r:id="rId90" display="ana.amat.espina@email.com"/>
+    <hyperlink ref="D92" r:id="rId91" display="mnavarro@email.com"/>
+    <hyperlink ref="D93" r:id="rId92" display="rrguingona@social.com"/>
+    <hyperlink ref="D94" r:id="rId93" display="maenciso@message.com"/>
+    <hyperlink ref="D95" r:id="rId94" display="isylle.barrientos@mit.edu"/>
+    <hyperlink ref="D96" r:id="rId95" display="mirandkyle@mail.me"/>
+    <hyperlink ref="D97" r:id="rId96" display="diwatangvelasco@account.org"/>
+    <hyperlink ref="D98" r:id="rId97" display="kidlatboy@email.com"/>
+    <hyperlink ref="D99" r:id="rId98" display="anna.ramos@email.com"/>
+    <hyperlink ref="D100" r:id="rId99" display="beronilla.adrian@mail.me"/>
+    <hyperlink ref="D101" r:id="rId100" display="jdr.dureza@account.org"/>
+    <hyperlink ref="D102" r:id="rId101" display="antolin.rosario@official.ph"/>
+    <hyperlink ref="D103" r:id="rId102" display="ddrodriguez@mit.edu"/>
+    <hyperlink ref="D104" r:id="rId103" display="fcortan@social.com"/>
+    <hyperlink ref="D105" r:id="rId104" display="iibinuya123@social.com"/>
+    <hyperlink ref="D106" r:id="rId105" display="awitca@message.com"/>
+    <hyperlink ref="D107" r:id="rId106" display="chua.asuncion@mail.me"/>
+    <hyperlink ref="D108" r:id="rId107" display="jonardmagsino@account.org"/>
+    <hyperlink ref="D109" r:id="rId108" display="scbarrientos@email.com"/>
+    <hyperlink ref="D110" r:id="rId109" display="delgado.josh22@social.com"/>
+    <hyperlink ref="D111" r:id="rId110" display="sofia.badong@email.com"/>
+    <hyperlink ref="D112" r:id="rId111" display="chino.preson.binuya@account.org"/>
+    <hyperlink ref="D113" r:id="rId112" display="jellylacumba@social.com"/>
+    <hyperlink ref="D114" r:id="rId113" display="marco.polo@official.ph"/>
+    <hyperlink ref="D115" r:id="rId114" display="aubrey.ramos@mail.me"/>
+    <hyperlink ref="D116" r:id="rId115" display="valenzuela.co@account.org"/>
+    <hyperlink ref="D117" r:id="rId116" display="sherryann.lazada@account.org"/>
+    <hyperlink ref="D118" r:id="rId117" display="josemarichan@social.com"/>
+    <hyperlink ref="D119" r:id="rId118" display="isylle4@email.com"/>
+    <hyperlink ref="D120" r:id="rId119" display="aarguirnalda@email.com"/>
+    <hyperlink ref="D121" r:id="rId120" display="ana.amat.espina@email.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
